--- a/biology/Botanique/Verte_longue/Verte_longue.xlsx
+++ b/biology/Botanique/Verte_longue/Verte_longue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Verte longue est une variété de poire.
 </t>
@@ -511,11 +523,13 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Verte longue d'hiver[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Verte longue d'hiver.
 Mouille Bouche d'automne.
-Remarque : il existe une Verte Longue Panachée, appelée Schweizer Hose (Pantalon suisse) en Allemagne[2].
+Remarque : il existe une Verte Longue Panachée, appelée Schweizer Hose (Pantalon suisse) en Allemagne.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La poire est cultivée dans le département de la Sarthe.
 </t>
@@ -575,9 +591,11 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Culture. - L'arbre est vigoureux et fertile surtout cultivé en haute tige en plein vent[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Culture. - L'arbre est vigoureux et fertile surtout cultivé en haute tige en plein vent.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se révèle un peu cydoniforme (en forme de coing), court et ventru, assez régulier en son pourtour, asymétrique.
 L'épiderme va de vert clair à vert foncé, picté finement de vert foncé, des taches fauves sont situées vers le pédicelle.
@@ -614,7 +634,7 @@
 Le pédicelle est long, de moyenne grosseur, droit ou légèrement arqué, implanté bien au sommet du fruit sans dépression bien marquée.
 La chair est jaunâtre, fine, juteuse, sucrée et parfumée.
 Le fruit se révèle d'assez bonne qualité.
-Sa maturité varie de l'automne à l'hiver[1].
+Sa maturité varie de l'automne à l'hiver.
 </t>
         </is>
       </c>
@@ -643,7 +663,9 @@
           <t>Appréciation générale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une poire de garde et cette qualité en fait la valeur.
 </t>
